--- a/backend/routes/downloads/workshops.xlsx
+++ b/backend/routes/downloads/workshops.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -567,9 +567,50 @@
         <v/>
       </c>
     </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Machine learning</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44958.00011574074</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45028.00011574074</v>
+      </c>
+      <c r="E5" t="str">
+        <v>computer vison</v>
+      </c>
+      <c r="F5" t="str">
+        <v>character</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Kokradoma</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Karkardooma</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Offline</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Garovish</v>
+      </c>
+      <c r="K5" t="str">
+        <v/>
+      </c>
+      <c r="L5" t="str">
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/routes/downloads/workshops.xlsx
+++ b/backend/routes/downloads/workshops.xlsx
@@ -32,8 +32,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -398,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -608,9 +609,50 @@
         <v/>
       </c>
     </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>cyber</v>
+      </c>
+      <c r="C6" s="1">
+        <v>45717.00011574074</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45752.00011574074</v>
+      </c>
+      <c r="E6" t="str">
+        <v>java</v>
+      </c>
+      <c r="F6" t="str">
+        <v>isea</v>
+      </c>
+      <c r="G6" t="str">
+        <v>all</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Inderlok</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Offline</v>
+      </c>
+      <c r="J6" t="str">
+        <v>anshu</v>
+      </c>
+      <c r="K6" t="str">
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/routes/downloads/workshops.xlsx
+++ b/backend/routes/downloads/workshops.xlsx
@@ -32,9 +32,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -399,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -650,9 +649,50 @@
         <v/>
       </c>
     </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>demo6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>45748.00011574074</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45749.00011574074</v>
+      </c>
+      <c r="E7" t="str">
+        <v>java</v>
+      </c>
+      <c r="F7" t="str">
+        <v>isea</v>
+      </c>
+      <c r="G7" t="str">
+        <v>inderlok, delhi</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Inderlok</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Offline</v>
+      </c>
+      <c r="J7" t="str">
+        <v>anshu</v>
+      </c>
+      <c r="K7" t="str">
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M7"/>
   </ignoredErrors>
 </worksheet>
 </file>